--- a/www/IndicatorsPerCountry/Angola_GDPperCapita_TerritorialRef_1975_2012_CCode_24.xlsx
+++ b/www/IndicatorsPerCountry/Angola_GDPperCapita_TerritorialRef_1975_2012_CCode_24.xlsx
@@ -243,13 +243,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Angola_GDPperCapita_TerritorialRef_1975_2012_CCode_24.xlsx
+++ b/www/IndicatorsPerCountry/Angola_GDPperCapita_TerritorialRef_1975_2012_CCode_24.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,184 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>1076</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>1079</t>
-  </si>
-  <si>
-    <t>1148</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>1197</t>
-  </si>
-  <si>
-    <t>1241</t>
-  </si>
-  <si>
-    <t>1225</t>
-  </si>
-  <si>
-    <t>1253</t>
-  </si>
-  <si>
-    <t>1396</t>
-  </si>
-  <si>
-    <t>1335</t>
-  </si>
-  <si>
-    <t>1380</t>
-  </si>
-  <si>
-    <t>1510</t>
-  </si>
-  <si>
-    <t>1596</t>
-  </si>
-  <si>
-    <t>1660</t>
-  </si>
-  <si>
-    <t>1727</t>
-  </si>
-  <si>
-    <t>1672</t>
-  </si>
-  <si>
-    <t>1691</t>
-  </si>
-  <si>
-    <t>1768</t>
-  </si>
-  <si>
-    <t>1728</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1789</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1073</t>
-  </si>
-  <si>
-    <t>954</t>
-  </si>
-  <si>
-    <t>941</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>958</t>
-  </si>
-  <si>
-    <t>961</t>
-  </si>
-  <si>
-    <t>923</t>
-  </si>
-  <si>
-    <t>862</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>790</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>694</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>853</t>
-  </si>
-  <si>
-    <t>868.065390563</t>
-  </si>
-  <si>
-    <t>853.776635767</t>
-  </si>
-  <si>
-    <t>781.705268156</t>
-  </si>
-  <si>
-    <t>576.202192052</t>
-  </si>
-  <si>
-    <t>565.922962232</t>
-  </si>
-  <si>
-    <t>630.628018119</t>
-  </si>
-  <si>
-    <t>734.230854561</t>
-  </si>
-  <si>
-    <t>752.506490326</t>
-  </si>
-  <si>
-    <t>731.005650126</t>
-  </si>
-  <si>
-    <t>733.668183639</t>
-  </si>
-  <si>
-    <t>736.400293156</t>
-  </si>
-  <si>
-    <t>741.102999384</t>
-  </si>
-  <si>
-    <t>825.498825915</t>
-  </si>
-  <si>
-    <t>824.97869136</t>
-  </si>
-  <si>
-    <t>885.23064882</t>
-  </si>
-  <si>
-    <t>1034.86301879</t>
-  </si>
-  <si>
-    <t>1213.87826623</t>
-  </si>
-  <si>
-    <t>1445.39524623</t>
-  </si>
-  <si>
-    <t>1599.1009701</t>
-  </si>
-  <si>
-    <t>1591.86539733</t>
-  </si>
-  <si>
-    <t>1600.00617161</t>
+    <t>1677</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t>1755</t>
+  </si>
+  <si>
+    <t>1795</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>1769</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>2225</t>
+  </si>
+  <si>
+    <t>2128</t>
+  </si>
+  <si>
+    <t>2200</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2544</t>
+  </si>
+  <si>
+    <t>2646</t>
+  </si>
+  <si>
+    <t>2753</t>
+  </si>
+  <si>
+    <t>2665</t>
+  </si>
+  <si>
+    <t>2695</t>
+  </si>
+  <si>
+    <t>2818</t>
+  </si>
+  <si>
+    <t>2754</t>
+  </si>
+  <si>
+    <t>2729</t>
+  </si>
+  <si>
+    <t>2852</t>
+  </si>
+  <si>
+    <t>2727</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>1527</t>
+  </si>
+  <si>
+    <t>1532</t>
+  </si>
+  <si>
+    <t>1471</t>
+  </si>
+  <si>
+    <t>1374</t>
+  </si>
+  <si>
+    <t>1288</t>
+  </si>
+  <si>
+    <t>1259</t>
+  </si>
+  <si>
+    <t>1242</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>1360</t>
+  </si>
+  <si>
+    <t>1384</t>
+  </si>
+  <si>
+    <t>1437.14724497403</t>
+  </si>
+  <si>
+    <t>1389.32948669997</t>
+  </si>
+  <si>
+    <t>1080.48064392033</t>
+  </si>
+  <si>
+    <t>1120.84815009607</t>
+  </si>
+  <si>
+    <t>1319.15894990345</t>
+  </si>
+  <si>
+    <t>1533.98393133996</t>
+  </si>
+  <si>
+    <t>1687.31778831254</t>
+  </si>
+  <si>
+    <t>1811.16814110069</t>
+  </si>
+  <si>
+    <t>1899.41520607372</t>
+  </si>
+  <si>
+    <t>2013.63622951894</t>
+  </si>
+  <si>
+    <t>2162.4850193097</t>
+  </si>
+  <si>
+    <t>2522.67186079884</t>
+  </si>
+  <si>
+    <t>2711.92831057414</t>
+  </si>
+  <si>
+    <t>3064.29865043472</t>
+  </si>
+  <si>
+    <t>3708.77058194222</t>
+  </si>
+  <si>
+    <t>4592.33730566167</t>
+  </si>
+  <si>
+    <t>5773.54828908847</t>
+  </si>
+  <si>
+    <t>6743.74819580276</t>
+  </si>
+  <si>
+    <t>7087.60411258477</t>
+  </si>
+  <si>
+    <t>7520.66576967863</t>
+  </si>
+  <si>
+    <t>8016</t>
+  </si>
+  <si>
+    <t>8190</t>
+  </si>
+  <si>
+    <t>8508</t>
+  </si>
+  <si>
+    <t>8673</t>
+  </si>
+  <si>
+    <t>8689</t>
+  </si>
+  <si>
+    <t>8453</t>
   </si>
   <si>
     <t>Description</t>
@@ -1354,6 +1372,108 @@
         <v>66</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1369,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
